--- a/stock_predictor_ai/data/company_sentiment_ready/CFG_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/CFG_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2700"/>
+  <dimension ref="A1:B2761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22041,6 +22041,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B2701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B2703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B2704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B2705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B2706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B2707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B2708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B2709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B2710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B2711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B2712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B2713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B2715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B2716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B2717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B2719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B2720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B2721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B2723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B2724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B2725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B2726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B2727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B2728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B2729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B2730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B2731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B2732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B2733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B2734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B2735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B2736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B2737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B2738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B2739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B2740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B2741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B2742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B2743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B2744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B2745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B2746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B2747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B2748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B2749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B2750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B2751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B2753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B2754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B2755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B2756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B2757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B2758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B2759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B2760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2761" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
